--- a/api/data/myGames.xlsx
+++ b/api/data/myGames.xlsx
@@ -397,9 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -457,22 +457,22 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>121832</v>
+        <v>zsLkfjIP</v>
       </c>
       <c r="B2" t="str">
-        <v>Team A</v>
+        <v>Bahia</v>
       </c>
       <c r="C2" t="str">
-        <v>https://example.com/teamA.png</v>
+        <v>https://static.flashscore.com/res/image/data/f5V5z1Cr-dKUmd286.png</v>
       </c>
       <c r="D2" t="str">
-        <v>Team B</v>
+        <v>Atlético-MG</v>
       </c>
       <c r="E2" t="str">
-        <v>https://example.com/teamB.png</v>
+        <v>https://static.flashscore.com/res/image/data/WbSJHDh5-pCk2vaSD.png</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -484,33 +484,404 @@
         <v>0</v>
       </c>
       <c r="J2" t="str">
-        <v/>
+        <v>R. Abatti Abel (Bra)</v>
       </c>
       <c r="K2" t="str">
-        <v>Stadium XYZ</v>
+        <v>Casa de Apostas Arena Fonte Nova (Salvador)</v>
       </c>
       <c r="L2" t="str">
-        <v/>
+        <v>48902</v>
       </c>
       <c r="M2" t="str">
-        <v>45000</v>
+        <v>28019</v>
       </c>
       <c r="N2" t="str">
-        <v>2024-10-10</v>
+        <v>06/12/2023</v>
       </c>
       <c r="O2" t="str">
-        <v>18:00</v>
+        <v>21:30</v>
       </c>
       <c r="P2" t="str">
-        <v>Country ABC</v>
+        <v>BRASIL</v>
       </c>
       <c r="Q2" t="str">
-        <v>Final</v>
+        <v>SÉRIE A - RODADA 38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>KWuOyGGo</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Cruzeiro</v>
+      </c>
+      <c r="C3" t="str">
+        <v>https://static.flashscore.com/res/image/data/lCWrxmg5-SjJmyx86.png</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Atlético-GO</v>
+      </c>
+      <c r="E3" t="str">
+        <v>https://static.flashscore.com/res/image/data/WGHITlhl-8f6Hj6B0.png</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="str">
+        <v>Bauermann G. (Bra)</v>
+      </c>
+      <c r="K3" t="str">
+        <v>Mineirão (Belo Horizonte)</v>
+      </c>
+      <c r="L3" t="str">
+        <v>61927</v>
+      </c>
+      <c r="M3" t="str">
+        <v>54592</v>
+      </c>
+      <c r="N3" t="str">
+        <v>01/09/2024</v>
+      </c>
+      <c r="O3" t="str">
+        <v>11:00</v>
+      </c>
+      <c r="P3" t="str">
+        <v>BRASIL</v>
+      </c>
+      <c r="Q3" t="str">
+        <v>BRASILEIRÃO BETANO - RODADA 25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>pnPUJDKJ</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Cruzeiro</v>
+      </c>
+      <c r="C4" t="str">
+        <v>https://static.flashscore.com/res/image/data/lCWrxmg5-SjJmyx86.png</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Internacional</v>
+      </c>
+      <c r="E4" t="str">
+        <v>https://static.flashscore.com/res/image/data/4EdoEoil-ALgHCh57.png</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="str">
+        <v>B. Arleu (Bra)</v>
+      </c>
+      <c r="K4" t="str">
+        <v>Mineirão (Belo Horizonte)</v>
+      </c>
+      <c r="L4" t="str">
+        <v>61927</v>
+      </c>
+      <c r="M4" t="str">
+        <v>35238</v>
+      </c>
+      <c r="N4" t="str">
+        <v>28/08/2024</v>
+      </c>
+      <c r="O4" t="str">
+        <v>19:30</v>
+      </c>
+      <c r="P4" t="str">
+        <v>BRASIL</v>
+      </c>
+      <c r="Q4" t="str">
+        <v>BRASILEIRÃO BETANO - RODADA 5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>xYPiVVaT</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Cuiabá</v>
+      </c>
+      <c r="C5" t="str">
+        <v>https://static.flashscore.com/res/image/data/COoi5ag5-6FedhD0P.png</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Criciúma</v>
+      </c>
+      <c r="E5" t="str">
+        <v>https://static.flashscore.com/res/image/data/rD23Eng5-no5LkQQ6.png</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="str">
+        <v>R. J. Pereira de Lima (Bra)</v>
+      </c>
+      <c r="K5" t="str">
+        <v>Arena Pantanal (Cuiabá)</v>
+      </c>
+      <c r="L5" t="str">
+        <v>44000</v>
+      </c>
+      <c r="M5" t="str">
+        <v>4095</v>
+      </c>
+      <c r="N5" t="str">
+        <v>31/08/2024</v>
+      </c>
+      <c r="O5" t="str">
+        <v>18:30</v>
+      </c>
+      <c r="P5" t="str">
+        <v>BRASIL</v>
+      </c>
+      <c r="Q5" t="str">
+        <v>BRASILEIRÃO BETANO - RODADA 25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Uo7KMrHc</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Cruzeiro (Bra)</v>
+      </c>
+      <c r="C6" t="str">
+        <v>https://static.flashscore.com/res/image/data/lCWrxmg5-SjJmyx86.png</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Boca Juniors (Arg)</v>
+      </c>
+      <c r="E6" t="str">
+        <v>https://static.flashscore.com/res/image/data/h4UwH8Cr-tnwDCzLD.png</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="str">
+        <v>Roldan W. (Col)</v>
+      </c>
+      <c r="K6" t="str">
+        <v>Mineirão (Belo Horizonte)</v>
+      </c>
+      <c r="L6" t="str">
+        <v>61927</v>
+      </c>
+      <c r="M6" t="str">
+        <v>58323</v>
+      </c>
+      <c r="N6" t="str">
+        <v>22/08/2024</v>
+      </c>
+      <c r="O6" t="str">
+        <v>21:30</v>
+      </c>
+      <c r="P6" t="str">
+        <v>AMÉRICA DO SUL</v>
+      </c>
+      <c r="Q6" t="str">
+        <v>COPA SUL-AMERICANA - PLAYOFFS - OITAVAS DE FINAL</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Sjbvvuo1</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Cruzeiro (Bra)</v>
+      </c>
+      <c r="C7" t="str">
+        <v>https://static.flashscore.com/res/image/data/lCWrxmg5-SjJmyx86.png</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Libertad (Par)</v>
+      </c>
+      <c r="E7" t="str">
+        <v>https://static.flashscore.com/res/image/data/ln1XQ9Ar-UwvYANk9.png</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="str">
+        <v>Alveal F. (Chi)</v>
+      </c>
+      <c r="K7" t="str">
+        <v>Mineirão (Belo Horizonte)</v>
+      </c>
+      <c r="L7" t="str">
+        <v>61927</v>
+      </c>
+      <c r="M7" t="str">
+        <v>52974</v>
+      </c>
+      <c r="N7" t="str">
+        <v>26/09/2024</v>
+      </c>
+      <c r="O7" t="str">
+        <v>21:30</v>
+      </c>
+      <c r="P7" t="str">
+        <v>AMÉRICA DO SUL</v>
+      </c>
+      <c r="Q7" t="str">
+        <v>COPA SUL-AMERICANA - PLAYOFFS - QUARTAS DE FINAL</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>nT6dm3iA</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Unión La Calera (Chi)</v>
+      </c>
+      <c r="C8" t="str">
+        <v>https://static.flashscore.com/res/image/data/AJdiRXkl-WYtEUtB2.png</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Cruzeiro (Bra)</v>
+      </c>
+      <c r="E8" t="str">
+        <v>https://static.flashscore.com/res/image/data/lCWrxmg5-SjJmyx86.png</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="str">
+        <v>de Vivar M. D. (Par)</v>
+      </c>
+      <c r="K8" t="str">
+        <v>Estadio Sausalito (Viña del Mar)</v>
+      </c>
+      <c r="L8" t="str">
+        <v>23423</v>
+      </c>
+      <c r="M8" t="str">
+        <v>1182</v>
+      </c>
+      <c r="N8" t="str">
+        <v>23/04/2024</v>
+      </c>
+      <c r="O8" t="str">
+        <v>19:00</v>
+      </c>
+      <c r="P8" t="str">
+        <v>AMÉRICA DO SUL</v>
+      </c>
+      <c r="Q8" t="str">
+        <v>COPA SUL-AMERICANA - FASE DE GRUPOS - RODADA 3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>StZaG8l8</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Cruzeiro</v>
+      </c>
+      <c r="C9" t="str">
+        <v>https://static.flashscore.com/res/image/data/lCWrxmg5-SjJmyx86.png</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Atlético-MG</v>
+      </c>
+      <c r="E9" t="str">
+        <v>https://static.flashscore.com/res/image/data/WbSJHDh5-pCk2vaSD.png</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="str">
+        <v>Raphael Claus (Bra)</v>
+      </c>
+      <c r="K9" t="str">
+        <v>Mineirão (Belo Horizonte)</v>
+      </c>
+      <c r="L9" t="str">
+        <v>61927</v>
+      </c>
+      <c r="M9" t="str">
+        <v>61583</v>
+      </c>
+      <c r="N9" t="str">
+        <v>10/08/2024</v>
+      </c>
+      <c r="O9" t="str">
+        <v>21:30</v>
+      </c>
+      <c r="P9" t="str">
+        <v>BRASIL</v>
+      </c>
+      <c r="Q9" t="str">
+        <v>BRASILEIRÃO BETANO - RODADA 22</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Q2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:Q9"/>
   </ignoredErrors>
 </worksheet>
 </file>